--- a/TIEN QUY.xlsx
+++ b/TIEN QUY.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>STT</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>BẢNG CHI HẰNG NGÀY</t>
+  </si>
+  <si>
+    <t>(ga+mì tôm) 32 ,o qua 15 ,thịt 30</t>
+  </si>
+  <si>
+    <t>CHI TIẾT</t>
   </si>
 </sst>
 </file>
@@ -383,21 +389,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,7 +399,22 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -731,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -745,7 +751,8 @@
     <col min="9" max="9" width="1" customWidth="1"/>
     <col min="10" max="10" width="25.109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="43.109375" style="4" customWidth="1"/>
-    <col min="12" max="13" width="28.5546875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="28.5546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="20" style="4" customWidth="1"/>
     <col min="15" max="15" width="20.6640625" style="4" customWidth="1"/>
     <col min="16" max="16" width="8.88671875" hidden="1" customWidth="1"/>
@@ -755,31 +762,31 @@
   <sheetData>
     <row r="3" spans="4:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="4:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="K4" s="16" t="s">
+      <c r="F4" s="20"/>
+      <c r="K4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="17"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="4:18" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="4:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -797,14 +804,16 @@
       <c r="L6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="N6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -840,11 +849,11 @@
       </c>
       <c r="O7" s="14">
         <f>SUM(L:L)</f>
-        <v>2280</v>
-      </c>
-      <c r="Q7" s="23">
+        <v>2387</v>
+      </c>
+      <c r="Q7" s="18">
         <f>H7-O7</f>
-        <v>1720</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.35">
@@ -888,7 +897,7 @@
       <c r="N9" s="2">
         <v>42710</v>
       </c>
-      <c r="R9" s="21"/>
+      <c r="R9" s="16"/>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D10" s="1">
@@ -900,10 +909,16 @@
       <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>30</v>
+      </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="2">
+        <v>42712</v>
+      </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D11" s="1">
@@ -915,10 +930,18 @@
       <c r="J11" s="3">
         <v>5</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="1">
+        <v>77</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2">
+        <v>42713</v>
+      </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D12" s="1">
@@ -1240,29 +1263,29 @@
   <sheetData>
     <row r="3" spans="4:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="4:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="K4" s="16" t="s">
+      <c r="F4" s="20"/>
+      <c r="K4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="20"/>
     </row>
     <row r="5" spans="4:16" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="19"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="4:16" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
